--- a/data/pca/factorExposure/factorExposure_2016-03-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01019243368117163</v>
+        <v>0.01463746676163486</v>
       </c>
       <c r="C2">
-        <v>0.05750490692376219</v>
+        <v>0.03993232073076619</v>
       </c>
       <c r="D2">
-        <v>-0.03190914242992725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07663118880183555</v>
+      </c>
+      <c r="E2">
+        <v>-0.1295841527689773</v>
+      </c>
+      <c r="F2">
+        <v>0.03487367880442509</v>
+      </c>
+      <c r="G2">
+        <v>-0.0001345895344804266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04482183950234944</v>
+        <v>0.02788337743111212</v>
       </c>
       <c r="C3">
-        <v>0.1243533912794367</v>
+        <v>0.06810644015126917</v>
       </c>
       <c r="D3">
-        <v>-0.05789588996960071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07838679913016285</v>
+      </c>
+      <c r="E3">
+        <v>-0.07118550900729269</v>
+      </c>
+      <c r="F3">
+        <v>-0.05711805704600407</v>
+      </c>
+      <c r="G3">
+        <v>-0.1058750082051747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06137831325061074</v>
+        <v>0.06153963399154717</v>
       </c>
       <c r="C4">
-        <v>0.06203862061722268</v>
+        <v>0.06195621685457673</v>
       </c>
       <c r="D4">
-        <v>-0.02228919451343094</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06828471330264617</v>
+      </c>
+      <c r="E4">
+        <v>-0.1187387176012249</v>
+      </c>
+      <c r="F4">
+        <v>-0.02619866881524818</v>
+      </c>
+      <c r="G4">
+        <v>0.04752675252873743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04218168494767281</v>
+        <v>0.03944547453672631</v>
       </c>
       <c r="C6">
-        <v>0.0365207008626024</v>
+        <v>0.0269737674103169</v>
       </c>
       <c r="D6">
-        <v>-0.02328920381161605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07521237618809638</v>
+      </c>
+      <c r="E6">
+        <v>-0.1054761010406712</v>
+      </c>
+      <c r="F6">
+        <v>-0.02585988222598897</v>
+      </c>
+      <c r="G6">
+        <v>-0.0002251435365077785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02925207985487657</v>
+        <v>0.02241265208881199</v>
       </c>
       <c r="C7">
-        <v>0.03591278553826187</v>
+        <v>0.03437998033671367</v>
       </c>
       <c r="D7">
-        <v>-0.002875918070130129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.057220839154754</v>
+      </c>
+      <c r="E7">
+        <v>-0.09413151526610695</v>
+      </c>
+      <c r="F7">
+        <v>-0.003008515188687473</v>
+      </c>
+      <c r="G7">
+        <v>0.08800509054131522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01049168708543335</v>
+        <v>0.008434692326495559</v>
       </c>
       <c r="C8">
-        <v>0.04441794389889708</v>
+        <v>0.03610546594334033</v>
       </c>
       <c r="D8">
-        <v>-0.02721671058207679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04871565506300241</v>
+      </c>
+      <c r="E8">
+        <v>-0.07243338673939399</v>
+      </c>
+      <c r="F8">
+        <v>-0.01625961221661322</v>
+      </c>
+      <c r="G8">
+        <v>-0.007118851628116725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03922883346941919</v>
+        <v>0.0428925001617699</v>
       </c>
       <c r="C9">
-        <v>0.04496506979798948</v>
+        <v>0.04873916744772102</v>
       </c>
       <c r="D9">
-        <v>-0.0213847788962735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0586750778186856</v>
+      </c>
+      <c r="E9">
+        <v>-0.09782160092474408</v>
+      </c>
+      <c r="F9">
+        <v>-0.006282326490019795</v>
+      </c>
+      <c r="G9">
+        <v>0.04936254526972005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07034327365645238</v>
+        <v>0.09964812047899013</v>
       </c>
       <c r="C10">
-        <v>-0.1867182639225833</v>
+        <v>-0.2009770948275125</v>
       </c>
       <c r="D10">
-        <v>-0.005180002290198857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.006458019815080989</v>
+      </c>
+      <c r="E10">
+        <v>-0.04182023823464289</v>
+      </c>
+      <c r="F10">
+        <v>-0.004765907541188733</v>
+      </c>
+      <c r="G10">
+        <v>0.02533941506561454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04523253243269136</v>
+        <v>0.03884149652541233</v>
       </c>
       <c r="C11">
-        <v>0.04991205622639217</v>
+        <v>0.04731141827188563</v>
       </c>
       <c r="D11">
-        <v>-0.01813394478544055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04132352005099038</v>
+      </c>
+      <c r="E11">
+        <v>-0.04498520256958844</v>
+      </c>
+      <c r="F11">
+        <v>-0.005499987053394836</v>
+      </c>
+      <c r="G11">
+        <v>0.0577374733516337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04811679225536557</v>
+        <v>0.0410560556063857</v>
       </c>
       <c r="C12">
-        <v>0.04449809132015852</v>
+        <v>0.0451850535366063</v>
       </c>
       <c r="D12">
-        <v>0.0001126330831097075</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03544095999632259</v>
+      </c>
+      <c r="E12">
+        <v>-0.05496697705008745</v>
+      </c>
+      <c r="F12">
+        <v>-0.002900271906564749</v>
+      </c>
+      <c r="G12">
+        <v>0.05001123989139758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01672570624922407</v>
+        <v>0.01569688748496971</v>
       </c>
       <c r="C13">
-        <v>0.05253092084304611</v>
+        <v>0.0410984060379979</v>
       </c>
       <c r="D13">
-        <v>-0.006732691325967488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06642229863459284</v>
+      </c>
+      <c r="E13">
+        <v>-0.1349589169130778</v>
+      </c>
+      <c r="F13">
+        <v>-0.01622422481497036</v>
+      </c>
+      <c r="G13">
+        <v>0.05323151305879541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01312991371074161</v>
+        <v>0.008063328643617938</v>
       </c>
       <c r="C14">
-        <v>0.03471796250103457</v>
+        <v>0.02973647901333312</v>
       </c>
       <c r="D14">
-        <v>0.0009118719165762445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04206287571504536</v>
+      </c>
+      <c r="E14">
+        <v>-0.08877739083565149</v>
+      </c>
+      <c r="F14">
+        <v>0.01511799185207508</v>
+      </c>
+      <c r="G14">
+        <v>0.05460772056916219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001404899843171258</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00644324489423458</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01109673075654564</v>
+      </c>
+      <c r="E15">
+        <v>-0.01198138700513333</v>
+      </c>
+      <c r="F15">
+        <v>0.0007824419993234454</v>
+      </c>
+      <c r="G15">
+        <v>0.002119915421358754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04317515725849923</v>
+        <v>0.03725170012360596</v>
       </c>
       <c r="C16">
-        <v>0.04693485947738737</v>
+        <v>0.04455545578777309</v>
       </c>
       <c r="D16">
-        <v>-0.004109217097026247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.03573966352372406</v>
+      </c>
+      <c r="E16">
+        <v>-0.05956419162046525</v>
+      </c>
+      <c r="F16">
+        <v>0.009659842462914207</v>
+      </c>
+      <c r="G16">
+        <v>0.04650553130402081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02574293612252272</v>
+        <v>0.01926804108711836</v>
       </c>
       <c r="C19">
-        <v>0.06051966440262163</v>
+        <v>0.04390716211097605</v>
       </c>
       <c r="D19">
-        <v>-0.06470409847406429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09569815374928707</v>
+      </c>
+      <c r="E19">
+        <v>-0.1283835755332976</v>
+      </c>
+      <c r="F19">
+        <v>0.01463758577537761</v>
+      </c>
+      <c r="G19">
+        <v>0.002652295309431567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02162361944056347</v>
+        <v>0.01738569980444035</v>
       </c>
       <c r="C20">
-        <v>0.0472270616047997</v>
+        <v>0.03873616230049804</v>
       </c>
       <c r="D20">
-        <v>-0.005043793552820897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04875221947667039</v>
+      </c>
+      <c r="E20">
+        <v>-0.1038923435144628</v>
+      </c>
+      <c r="F20">
+        <v>-0.0001708845476499593</v>
+      </c>
+      <c r="G20">
+        <v>0.03077821142613266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0184494406543102</v>
+        <v>0.01477536012495001</v>
       </c>
       <c r="C21">
-        <v>0.05613421968690615</v>
+        <v>0.04466166804885414</v>
       </c>
       <c r="D21">
-        <v>-0.02061415086455386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07439274753552287</v>
+      </c>
+      <c r="E21">
+        <v>-0.1569179924789487</v>
+      </c>
+      <c r="F21">
+        <v>0.01454168614517219</v>
+      </c>
+      <c r="G21">
+        <v>0.06503242584869187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0006850449547668552</v>
+        <v>0.005002841739326032</v>
       </c>
       <c r="C22">
-        <v>0.01355143186594158</v>
+        <v>0.0291624525736815</v>
       </c>
       <c r="D22">
-        <v>-0.02474934657476873</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0649942213209571</v>
+      </c>
+      <c r="E22">
+        <v>-0.0763215416507369</v>
+      </c>
+      <c r="F22">
+        <v>-0.06375545178502284</v>
+      </c>
+      <c r="G22">
+        <v>-0.02535638850756642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0006960637974461982</v>
+        <v>0.0051319824802871</v>
       </c>
       <c r="C23">
-        <v>0.01356475026464421</v>
+        <v>0.02912857468200998</v>
       </c>
       <c r="D23">
-        <v>-0.02471248718182431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06421702362682306</v>
+      </c>
+      <c r="E23">
+        <v>-0.07648672721170116</v>
+      </c>
+      <c r="F23">
+        <v>-0.06377261874697082</v>
+      </c>
+      <c r="G23">
+        <v>-0.02497709923207002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.04017912882019223</v>
+        <v>0.03828181703651724</v>
       </c>
       <c r="C24">
-        <v>0.04817195935257822</v>
+        <v>0.05234742192299361</v>
       </c>
       <c r="D24">
-        <v>-0.01058715075674417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.03803409392227644</v>
+      </c>
+      <c r="E24">
+        <v>-0.06516740772567871</v>
+      </c>
+      <c r="F24">
+        <v>0.005476039491568235</v>
+      </c>
+      <c r="G24">
+        <v>0.06127425724774063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05123154184304259</v>
+        <v>0.04561916674324799</v>
       </c>
       <c r="C25">
-        <v>0.05699365845596127</v>
+        <v>0.05509279423961446</v>
       </c>
       <c r="D25">
-        <v>-0.003370920984026577</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03457701703511283</v>
+      </c>
+      <c r="E25">
+        <v>-0.05634435473024345</v>
+      </c>
+      <c r="F25">
+        <v>-0.006993462529632383</v>
+      </c>
+      <c r="G25">
+        <v>0.06878066170056392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02143193210987065</v>
+        <v>0.01878103357345894</v>
       </c>
       <c r="C26">
-        <v>0.01367737159527211</v>
+        <v>0.01561571998146577</v>
       </c>
       <c r="D26">
-        <v>-0.01338355102312896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03905696849884649</v>
+      </c>
+      <c r="E26">
+        <v>-0.06922527299059</v>
+      </c>
+      <c r="F26">
+        <v>0.01382905069952112</v>
+      </c>
+      <c r="G26">
+        <v>0.02628685256169511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08927517765445425</v>
+        <v>0.1377279249818606</v>
       </c>
       <c r="C28">
-        <v>-0.2579020401996491</v>
+        <v>-0.2612114431924396</v>
       </c>
       <c r="D28">
-        <v>0.006800294876117826</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02449459652099009</v>
+      </c>
+      <c r="E28">
+        <v>-0.06373973780379132</v>
+      </c>
+      <c r="F28">
+        <v>-0.005714998638707069</v>
+      </c>
+      <c r="G28">
+        <v>0.05723847957942522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01151919860555776</v>
+        <v>0.008424639840405965</v>
       </c>
       <c r="C29">
-        <v>0.03001739057901587</v>
+        <v>0.02735716888528427</v>
       </c>
       <c r="D29">
-        <v>0.006066759673361944</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03476838202855562</v>
+      </c>
+      <c r="E29">
+        <v>-0.08281788376310845</v>
+      </c>
+      <c r="F29">
+        <v>0.005049213074032157</v>
+      </c>
+      <c r="G29">
+        <v>0.05928473399418223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04569181783178355</v>
+        <v>0.04532463647496909</v>
       </c>
       <c r="C30">
-        <v>0.04902741035660487</v>
+        <v>0.05508028314101157</v>
       </c>
       <c r="D30">
-        <v>-0.08003759806201016</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1211522803078587</v>
+      </c>
+      <c r="E30">
+        <v>-0.1109127025564139</v>
+      </c>
+      <c r="F30">
+        <v>-0.0003523142716523502</v>
+      </c>
+      <c r="G30">
+        <v>0.004541374522722864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06569704712182635</v>
+        <v>0.06276388252391965</v>
       </c>
       <c r="C31">
-        <v>0.04347872731620071</v>
+        <v>0.05926213240256627</v>
       </c>
       <c r="D31">
-        <v>0.03859543189765514</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0001855925646932024</v>
+      </c>
+      <c r="E31">
+        <v>-0.08804076428535958</v>
+      </c>
+      <c r="F31">
+        <v>-0.03074580097434275</v>
+      </c>
+      <c r="G31">
+        <v>0.03772446490746838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007265243138235771</v>
+        <v>0.01128417815843501</v>
       </c>
       <c r="C32">
-        <v>0.03927267948809195</v>
+        <v>0.03413458476060707</v>
       </c>
       <c r="D32">
-        <v>-0.06137712874669211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.07015159246065616</v>
+      </c>
+      <c r="E32">
+        <v>-0.07814653050646574</v>
+      </c>
+      <c r="F32">
+        <v>0.01583589147779186</v>
+      </c>
+      <c r="G32">
+        <v>0.05989350232880484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03638330924588256</v>
+        <v>0.02968039721052794</v>
       </c>
       <c r="C33">
-        <v>0.05802987528458738</v>
+        <v>0.05149547445635223</v>
       </c>
       <c r="D33">
-        <v>-0.04127755512280546</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08725833888562551</v>
+      </c>
+      <c r="E33">
+        <v>-0.1163625441969652</v>
+      </c>
+      <c r="F33">
+        <v>-0.01137988654787057</v>
+      </c>
+      <c r="G33">
+        <v>0.05928531418945929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04657545127656693</v>
+        <v>0.04159208008722137</v>
       </c>
       <c r="C34">
-        <v>0.06313678317556788</v>
+        <v>0.06259450839281504</v>
       </c>
       <c r="D34">
-        <v>-0.02345966968187077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04436334037846337</v>
+      </c>
+      <c r="E34">
+        <v>-0.04488763985469277</v>
+      </c>
+      <c r="F34">
+        <v>0.006112932848513639</v>
+      </c>
+      <c r="G34">
+        <v>0.06911606766951839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-1.131071078233001e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1.160423987776953e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>6.010496448715e-05</v>
+      </c>
+      <c r="E35">
+        <v>0.0006176473827116494</v>
+      </c>
+      <c r="F35">
+        <v>0.0001102241859188144</v>
+      </c>
+      <c r="G35">
+        <v>0.0003978219652818575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02021717698643612</v>
+        <v>0.0177100977678771</v>
       </c>
       <c r="C36">
-        <v>0.01605630857518012</v>
+        <v>0.01252008331868851</v>
       </c>
       <c r="D36">
-        <v>-0.003710462207008569</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03822187840742589</v>
+      </c>
+      <c r="E36">
+        <v>-0.08081395929891041</v>
+      </c>
+      <c r="F36">
+        <v>-0.0006473315482655078</v>
+      </c>
+      <c r="G36">
+        <v>0.04482791348179593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03159633492072541</v>
+        <v>0.02438469049558421</v>
       </c>
       <c r="C38">
-        <v>0.03232730554821509</v>
+        <v>0.02487610533694469</v>
       </c>
       <c r="D38">
-        <v>0.01444398961505484</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.03007365656228589</v>
+      </c>
+      <c r="E38">
+        <v>-0.07184869281169641</v>
+      </c>
+      <c r="F38">
+        <v>-0.002551405313659687</v>
+      </c>
+      <c r="G38">
+        <v>0.001790960062076035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05093988530121877</v>
+        <v>0.04422357128004568</v>
       </c>
       <c r="C39">
-        <v>0.05721158399451982</v>
+        <v>0.06064317318261837</v>
       </c>
       <c r="D39">
-        <v>-0.02589504012332137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06699267828220422</v>
+      </c>
+      <c r="E39">
+        <v>-0.0770150011448308</v>
+      </c>
+      <c r="F39">
+        <v>0.0227764913450046</v>
+      </c>
+      <c r="G39">
+        <v>0.05081271094904725</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01338774652068414</v>
+        <v>0.01589227859138756</v>
       </c>
       <c r="C40">
-        <v>0.05525924146660881</v>
+        <v>0.03919718711746566</v>
       </c>
       <c r="D40">
-        <v>-0.0002945006637025159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04314939194851277</v>
+      </c>
+      <c r="E40">
+        <v>-0.1171464131134367</v>
+      </c>
+      <c r="F40">
+        <v>-0.0277413082521377</v>
+      </c>
+      <c r="G40">
+        <v>0.04555653266908789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02558733186840995</v>
+        <v>0.02164946825276579</v>
       </c>
       <c r="C41">
-        <v>0.01317685204771343</v>
+        <v>0.009619927179888061</v>
       </c>
       <c r="D41">
-        <v>-0.0007172790034598845</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02553361247445321</v>
+      </c>
+      <c r="E41">
+        <v>-0.07693517919555884</v>
+      </c>
+      <c r="F41">
+        <v>0.0006349487673286913</v>
+      </c>
+      <c r="G41">
+        <v>0.03081375232102528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.0484302010314497</v>
+        <v>0.03365991645745562</v>
       </c>
       <c r="C43">
-        <v>0.0332382157138777</v>
+        <v>0.02411170983476525</v>
       </c>
       <c r="D43">
-        <v>-0.01286873978767585</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.05387870433116407</v>
+      </c>
+      <c r="E43">
+        <v>-0.08957040289180915</v>
+      </c>
+      <c r="F43">
+        <v>-0.01952234834260358</v>
+      </c>
+      <c r="G43">
+        <v>0.04963825219081758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01984681047237829</v>
+        <v>0.02019150107359671</v>
       </c>
       <c r="C44">
-        <v>0.06949605760064008</v>
+        <v>0.04830250989733137</v>
       </c>
       <c r="D44">
-        <v>0.01207997479108208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04111973221023037</v>
+      </c>
+      <c r="E44">
+        <v>-0.113255084183988</v>
+      </c>
+      <c r="F44">
+        <v>0.01265053809378089</v>
+      </c>
+      <c r="G44">
+        <v>0.02678267723145975</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01563817312750798</v>
+        <v>0.01393107154038227</v>
       </c>
       <c r="C46">
-        <v>0.02590337738870446</v>
+        <v>0.02879726629681875</v>
       </c>
       <c r="D46">
-        <v>0.012325986005184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02994336014562371</v>
+      </c>
+      <c r="E46">
+        <v>-0.09487369115447902</v>
+      </c>
+      <c r="F46">
+        <v>0.01694595763418543</v>
+      </c>
+      <c r="G46">
+        <v>0.06954629231509223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09394858553087893</v>
+        <v>0.09434630260654012</v>
       </c>
       <c r="C47">
-        <v>0.06482541591837362</v>
+        <v>0.07878711417361886</v>
       </c>
       <c r="D47">
-        <v>0.0503330611811473</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01583419970933928</v>
+      </c>
+      <c r="E47">
+        <v>-0.07633731358961099</v>
+      </c>
+      <c r="F47">
+        <v>-0.01951333949119956</v>
+      </c>
+      <c r="G47">
+        <v>0.06369039867856237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02222130815899991</v>
+        <v>0.02003959392952219</v>
       </c>
       <c r="C48">
-        <v>0.01172908001362474</v>
+        <v>0.01437777446180071</v>
       </c>
       <c r="D48">
-        <v>0.01820493092696803</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02342926378917446</v>
+      </c>
+      <c r="E48">
+        <v>-0.09643220147410496</v>
+      </c>
+      <c r="F48">
+        <v>0.007771829713441926</v>
+      </c>
+      <c r="G48">
+        <v>0.05011215546556119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08706749042123463</v>
+        <v>0.07399388092486138</v>
       </c>
       <c r="C50">
-        <v>0.08398278785101911</v>
+        <v>0.07485598379561755</v>
       </c>
       <c r="D50">
-        <v>0.05369736907453997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001788019875928419</v>
+      </c>
+      <c r="E50">
+        <v>-0.08913360078429015</v>
+      </c>
+      <c r="F50">
+        <v>-0.05605970626265549</v>
+      </c>
+      <c r="G50">
+        <v>0.0340220021514352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0150470205304595</v>
+        <v>0.01115226304786807</v>
       </c>
       <c r="C51">
-        <v>0.04904998211523825</v>
+        <v>0.03034825823597569</v>
       </c>
       <c r="D51">
-        <v>-0.04737909894392586</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07132781335789086</v>
+      </c>
+      <c r="E51">
+        <v>-0.08552682008975429</v>
+      </c>
+      <c r="F51">
+        <v>0.01259805422223074</v>
+      </c>
+      <c r="G51">
+        <v>0.02765170173059969</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08626656266018765</v>
+        <v>0.09958446681500314</v>
       </c>
       <c r="C53">
-        <v>0.07775469225965266</v>
+        <v>0.08564771890038936</v>
       </c>
       <c r="D53">
-        <v>0.06986445197816842</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05460040711817365</v>
+      </c>
+      <c r="E53">
+        <v>-0.08908286678304654</v>
+      </c>
+      <c r="F53">
+        <v>-0.01668099679735405</v>
+      </c>
+      <c r="G53">
+        <v>0.06304156630535601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.04000422852093145</v>
+        <v>0.03215883084091681</v>
       </c>
       <c r="C54">
-        <v>0.03153717541447813</v>
+        <v>0.03006303246035864</v>
       </c>
       <c r="D54">
-        <v>-0.006468455954088327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.04366740238731722</v>
+      </c>
+      <c r="E54">
+        <v>-0.0880444294172448</v>
+      </c>
+      <c r="F54">
+        <v>0.007319135806743392</v>
+      </c>
+      <c r="G54">
+        <v>0.05869942573140578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08409051586307184</v>
+        <v>0.09235372311141218</v>
       </c>
       <c r="C55">
-        <v>0.05081902686803504</v>
+        <v>0.06593904408798121</v>
       </c>
       <c r="D55">
-        <v>0.06671321287657812</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05262759218675506</v>
+      </c>
+      <c r="E55">
+        <v>-0.05721711658297631</v>
+      </c>
+      <c r="F55">
+        <v>-0.02706529578958882</v>
+      </c>
+      <c r="G55">
+        <v>0.02803012763832034</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1534916944797088</v>
+        <v>0.1560540197463224</v>
       </c>
       <c r="C56">
-        <v>0.08107151077911699</v>
+        <v>0.1003420308731689</v>
       </c>
       <c r="D56">
-        <v>0.07112814414652162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.059861779720848</v>
+      </c>
+      <c r="E56">
+        <v>-0.03871669377210997</v>
+      </c>
+      <c r="F56">
+        <v>-0.01132992231922885</v>
+      </c>
+      <c r="G56">
+        <v>0.03890619769449883</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04956300646176356</v>
+        <v>0.03655110883410544</v>
       </c>
       <c r="C58">
-        <v>-0.00474944360156644</v>
+        <v>0.009307910805365556</v>
       </c>
       <c r="D58">
-        <v>-0.1731372247488137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2689165507673689</v>
+      </c>
+      <c r="E58">
+        <v>-0.3539006974883048</v>
+      </c>
+      <c r="F58">
+        <v>-0.1948243391487044</v>
+      </c>
+      <c r="G58">
+        <v>-0.6177246077363963</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1226765981097897</v>
+        <v>0.1420431473621</v>
       </c>
       <c r="C59">
-        <v>-0.2096461834064195</v>
+        <v>-0.1949285615348036</v>
       </c>
       <c r="D59">
-        <v>-0.03154950869704471</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03448968679809597</v>
+      </c>
+      <c r="E59">
+        <v>-0.03318372150727827</v>
+      </c>
+      <c r="F59">
+        <v>0.02490874703182607</v>
+      </c>
+      <c r="G59">
+        <v>-0.01969038887082705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2943600083236718</v>
+        <v>0.2667190420829027</v>
       </c>
       <c r="C60">
-        <v>0.1029870865877268</v>
+        <v>0.0964285253622145</v>
       </c>
       <c r="D60">
-        <v>-0.2762005944967467</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2483924090258165</v>
+      </c>
+      <c r="E60">
+        <v>0.2586638329920414</v>
+      </c>
+      <c r="F60">
+        <v>-0.0910197555299819</v>
+      </c>
+      <c r="G60">
+        <v>0.02719307245479447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0486920904436103</v>
+        <v>0.04551738672726575</v>
       </c>
       <c r="C61">
-        <v>0.05379031546136842</v>
+        <v>0.054180480662882</v>
       </c>
       <c r="D61">
-        <v>-0.02256601911751631</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05428315467933998</v>
+      </c>
+      <c r="E61">
+        <v>-0.07304635458376067</v>
+      </c>
+      <c r="F61">
+        <v>0.0009892379478634061</v>
+      </c>
+      <c r="G61">
+        <v>0.06565492526631868</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01917846719632438</v>
+        <v>0.01858790950375193</v>
       </c>
       <c r="C63">
-        <v>0.0344588870020831</v>
+        <v>0.03070871137795856</v>
       </c>
       <c r="D63">
-        <v>0.02035476236095881</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02814423627933478</v>
+      </c>
+      <c r="E63">
+        <v>-0.09136560981997373</v>
+      </c>
+      <c r="F63">
+        <v>-0.01959093871065804</v>
+      </c>
+      <c r="G63">
+        <v>0.03051135866148016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05545660333985854</v>
+        <v>0.05941242613849868</v>
       </c>
       <c r="C64">
-        <v>0.04565872398175355</v>
+        <v>0.05872660044504799</v>
       </c>
       <c r="D64">
-        <v>-0.004004118948464382</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01946079793401709</v>
+      </c>
+      <c r="E64">
+        <v>-0.05909175466126176</v>
+      </c>
+      <c r="F64">
+        <v>0.01769906398081211</v>
+      </c>
+      <c r="G64">
+        <v>0.08109987588685567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07905991709745634</v>
+        <v>0.06492673817693988</v>
       </c>
       <c r="C65">
-        <v>0.0240554424951848</v>
+        <v>0.02470042875305077</v>
       </c>
       <c r="D65">
-        <v>-0.05502584957125536</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.09675570812830905</v>
+      </c>
+      <c r="E65">
+        <v>-0.05988148369568496</v>
+      </c>
+      <c r="F65">
+        <v>-0.03238033887419776</v>
+      </c>
+      <c r="G65">
+        <v>-0.05568319321325058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06297751913009383</v>
+        <v>0.05510657723389591</v>
       </c>
       <c r="C66">
-        <v>0.07672815307170988</v>
+        <v>0.07609853789254022</v>
       </c>
       <c r="D66">
-        <v>-0.04232324128314721</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08909494052380373</v>
+      </c>
+      <c r="E66">
+        <v>-0.09033037686981023</v>
+      </c>
+      <c r="F66">
+        <v>0.0028624601996202</v>
+      </c>
+      <c r="G66">
+        <v>0.0522259940932029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05152894920246422</v>
+        <v>0.0436416862821085</v>
       </c>
       <c r="C67">
-        <v>0.03178500544811173</v>
+        <v>0.02866781383655953</v>
       </c>
       <c r="D67">
-        <v>0.02481062542687616</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.008815878838923978</v>
+      </c>
+      <c r="E67">
+        <v>-0.04357132030522791</v>
+      </c>
+      <c r="F67">
+        <v>-0.003710075102508392</v>
+      </c>
+      <c r="G67">
+        <v>0.01000468270358458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1227357581628004</v>
+        <v>0.1477611511865256</v>
       </c>
       <c r="C68">
-        <v>-0.2845351794019332</v>
+        <v>-0.2449544813127071</v>
       </c>
       <c r="D68">
-        <v>0.007218502713011519</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.007181152415048632</v>
+      </c>
+      <c r="E68">
+        <v>-0.05071685483654185</v>
+      </c>
+      <c r="F68">
+        <v>-0.01485283738328583</v>
+      </c>
+      <c r="G68">
+        <v>-0.007207745570359422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09495767397382984</v>
+        <v>0.0901778855691807</v>
       </c>
       <c r="C69">
-        <v>0.07225605285196168</v>
+        <v>0.08932714358381502</v>
       </c>
       <c r="D69">
-        <v>0.0477327211645597</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.002576253642133115</v>
+      </c>
+      <c r="E69">
+        <v>-0.07707943230613068</v>
+      </c>
+      <c r="F69">
+        <v>0.009760521803124759</v>
+      </c>
+      <c r="G69">
+        <v>0.07835751552432617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1135171085755082</v>
+        <v>0.1435105653145876</v>
       </c>
       <c r="C71">
-        <v>-0.2614118602536757</v>
+        <v>-0.2454106035769917</v>
       </c>
       <c r="D71">
-        <v>-0.01150551964790863</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01037953648794825</v>
+      </c>
+      <c r="E71">
+        <v>-0.06817014183690512</v>
+      </c>
+      <c r="F71">
+        <v>-0.03019896619697464</v>
+      </c>
+      <c r="G71">
+        <v>0.0381915546994107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1001981345238027</v>
+        <v>0.1055713493813088</v>
       </c>
       <c r="C72">
-        <v>0.04591666620663551</v>
+        <v>0.04831262126904735</v>
       </c>
       <c r="D72">
-        <v>-0.01511464325977899</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.05354288806687364</v>
+      </c>
+      <c r="E72">
+        <v>-0.05104897694725059</v>
+      </c>
+      <c r="F72">
+        <v>-0.03149557225840106</v>
+      </c>
+      <c r="G72">
+        <v>0.06278111460095101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3714790912937764</v>
+        <v>0.3177973435081164</v>
       </c>
       <c r="C73">
-        <v>0.06493920769726318</v>
+        <v>0.07638263341201378</v>
       </c>
       <c r="D73">
-        <v>-0.5764541542376999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4857350759795026</v>
+      </c>
+      <c r="E73">
+        <v>0.5120036220590827</v>
+      </c>
+      <c r="F73">
+        <v>-0.1716168603913457</v>
+      </c>
+      <c r="G73">
+        <v>-0.0266602692665088</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1087076343949892</v>
+        <v>0.1114199369882871</v>
       </c>
       <c r="C74">
-        <v>0.09265646075070755</v>
+        <v>0.09167170779967458</v>
       </c>
       <c r="D74">
-        <v>0.05633700378140701</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04496821693492414</v>
+      </c>
+      <c r="E74">
+        <v>-0.06518345209733098</v>
+      </c>
+      <c r="F74">
+        <v>-0.03794472693832816</v>
+      </c>
+      <c r="G74">
+        <v>0.02654172371099481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2565663142232958</v>
+        <v>0.2584467654269795</v>
       </c>
       <c r="C75">
-        <v>0.08601316201317559</v>
+        <v>0.1217334668034097</v>
       </c>
       <c r="D75">
-        <v>0.1645635010452627</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1642973552275762</v>
+      </c>
+      <c r="E75">
+        <v>-0.005656939967859859</v>
+      </c>
+      <c r="F75">
+        <v>-0.01133818477170396</v>
+      </c>
+      <c r="G75">
+        <v>-0.02377414500425098</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1200293251840456</v>
+        <v>0.1311936307084576</v>
       </c>
       <c r="C76">
-        <v>0.07709595245894045</v>
+        <v>0.08893882905010364</v>
       </c>
       <c r="D76">
-        <v>0.09165414016574436</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07743342289685673</v>
+      </c>
+      <c r="E76">
+        <v>-0.08611075565170805</v>
+      </c>
+      <c r="F76">
+        <v>-0.006510626237110396</v>
+      </c>
+      <c r="G76">
+        <v>0.02783916510943258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08431177149928294</v>
+        <v>0.06936344864081341</v>
       </c>
       <c r="C77">
-        <v>0.0346345360505288</v>
+        <v>0.05642746189693466</v>
       </c>
       <c r="D77">
-        <v>-0.05526956308329979</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0780333827483039</v>
+      </c>
+      <c r="E77">
+        <v>-0.1236185055294169</v>
+      </c>
+      <c r="F77">
+        <v>0.2030619169418125</v>
+      </c>
+      <c r="G77">
+        <v>-0.13702578947299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04791186819588249</v>
+        <v>0.0483764932424674</v>
       </c>
       <c r="C78">
-        <v>0.04055301607403549</v>
+        <v>0.05081322769673357</v>
       </c>
       <c r="D78">
-        <v>-0.04241340212963415</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08029535952740688</v>
+      </c>
+      <c r="E78">
+        <v>-0.0848748013192672</v>
+      </c>
+      <c r="F78">
+        <v>0.002785377694529753</v>
+      </c>
+      <c r="G78">
+        <v>0.05436932581188492</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.001460011487952421</v>
+        <v>0.03625448133450036</v>
       </c>
       <c r="C79">
-        <v>0.001084967846542315</v>
+        <v>0.04959189989842078</v>
       </c>
       <c r="D79">
-        <v>-0.005584394799952807</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.09152260061460236</v>
+      </c>
+      <c r="E79">
+        <v>-0.0750077101859619</v>
+      </c>
+      <c r="F79">
+        <v>-0.0365679658630378</v>
+      </c>
+      <c r="G79">
+        <v>0.1212193620953109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03712228124290751</v>
+        <v>0.02933752020855471</v>
       </c>
       <c r="C80">
-        <v>0.04811833722557625</v>
+        <v>0.04893940290737298</v>
       </c>
       <c r="D80">
-        <v>-0.03406693371229883</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04351398756028527</v>
+      </c>
+      <c r="E80">
+        <v>-0.02686176191883179</v>
+      </c>
+      <c r="F80">
+        <v>0.04041690931008556</v>
+      </c>
+      <c r="G80">
+        <v>0.008433946360067687</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1476401264946724</v>
+        <v>0.1436748791076738</v>
       </c>
       <c r="C81">
-        <v>0.06732473961930972</v>
+        <v>0.0884604774400892</v>
       </c>
       <c r="D81">
-        <v>0.1380932417076259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1284713948505515</v>
+      </c>
+      <c r="E81">
+        <v>-0.05423448523594265</v>
+      </c>
+      <c r="F81">
+        <v>-0.008976490620910502</v>
+      </c>
+      <c r="G81">
+        <v>-0.001685238960191032</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2141240533737764</v>
+        <v>0.2369292056415332</v>
       </c>
       <c r="C82">
-        <v>0.08953882749027434</v>
+        <v>0.1588045705136989</v>
       </c>
       <c r="D82">
-        <v>0.1890324429051671</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2478555763551092</v>
+      </c>
+      <c r="E82">
+        <v>0.04665637902870656</v>
+      </c>
+      <c r="F82">
+        <v>0.0574859975222855</v>
+      </c>
+      <c r="G82">
+        <v>0.356950533956134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04349542651280498</v>
+        <v>0.029621924703538</v>
       </c>
       <c r="C83">
-        <v>0.03926124622585263</v>
+        <v>0.04764157214777021</v>
       </c>
       <c r="D83">
-        <v>-0.04417715282980984</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03624459814965917</v>
+      </c>
+      <c r="E83">
+        <v>-0.03255021149042899</v>
+      </c>
+      <c r="F83">
+        <v>0.02422755234856283</v>
+      </c>
+      <c r="G83">
+        <v>-0.00935637396416719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002290469679439492</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001519822952783888</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.000771962300538695</v>
+      </c>
+      <c r="E84">
+        <v>-0.005797994548495581</v>
+      </c>
+      <c r="F84">
+        <v>-0.002110531118839485</v>
+      </c>
+      <c r="G84">
+        <v>-0.003971205092655889</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2134381491118022</v>
+        <v>0.1981842247563747</v>
       </c>
       <c r="C85">
-        <v>0.09620566762373527</v>
+        <v>0.1125845896030256</v>
       </c>
       <c r="D85">
-        <v>0.1794306638720875</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.146000686037547</v>
+      </c>
+      <c r="E85">
+        <v>0.01499442533681354</v>
+      </c>
+      <c r="F85">
+        <v>-0.08678973431291534</v>
+      </c>
+      <c r="G85">
+        <v>0.005971513128313055</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01143174576940552</v>
+        <v>0.01562750280637823</v>
       </c>
       <c r="C86">
-        <v>0.02709295556458851</v>
+        <v>0.01489821473937236</v>
       </c>
       <c r="D86">
-        <v>-0.04267422356455915</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.081175335030965</v>
+      </c>
+      <c r="E86">
+        <v>-0.1009943953721406</v>
+      </c>
+      <c r="F86">
+        <v>0.01940062686955146</v>
+      </c>
+      <c r="G86">
+        <v>0.06737638464905757</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03323380961834332</v>
+        <v>0.0332271525168166</v>
       </c>
       <c r="C87">
-        <v>-0.001346896011154753</v>
+        <v>0.01188393643771142</v>
       </c>
       <c r="D87">
-        <v>-0.05684631212346822</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09723132047766279</v>
+      </c>
+      <c r="E87">
+        <v>-0.1410483166748708</v>
+      </c>
+      <c r="F87">
+        <v>0.04807605173943221</v>
+      </c>
+      <c r="G87">
+        <v>-0.02957008678449355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1133586472412449</v>
+        <v>0.09492202630745601</v>
       </c>
       <c r="C88">
-        <v>0.08053975540567898</v>
+        <v>0.06743123986553666</v>
       </c>
       <c r="D88">
-        <v>0.01728767963102784</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01746922137965327</v>
+      </c>
+      <c r="E88">
+        <v>-0.0539328486007107</v>
+      </c>
+      <c r="F88">
+        <v>0.01829279865589375</v>
+      </c>
+      <c r="G88">
+        <v>0.04461663690411655</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1736129006152457</v>
+        <v>0.2130551958235448</v>
       </c>
       <c r="C89">
-        <v>-0.3823686593799223</v>
+        <v>-0.3842228131930048</v>
       </c>
       <c r="D89">
-        <v>0.03038039764442864</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.009330627711262373</v>
+      </c>
+      <c r="E89">
+        <v>-0.07977572258862772</v>
+      </c>
+      <c r="F89">
+        <v>0.06854486464087274</v>
+      </c>
+      <c r="G89">
+        <v>0.02587946908859717</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1677874491028207</v>
+        <v>0.194368481809617</v>
       </c>
       <c r="C90">
-        <v>-0.3363780515275518</v>
+        <v>-0.3117491579275708</v>
       </c>
       <c r="D90">
-        <v>0.03881186822700997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01169531520418328</v>
+      </c>
+      <c r="E90">
+        <v>-0.06186038444426458</v>
+      </c>
+      <c r="F90">
+        <v>0.004266769766741839</v>
+      </c>
+      <c r="G90">
+        <v>-0.002786190674845925</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1926663751402106</v>
+        <v>0.1875469336266659</v>
       </c>
       <c r="C91">
-        <v>0.1196962978078396</v>
+        <v>0.1409551486446882</v>
       </c>
       <c r="D91">
-        <v>0.1522066980225619</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1347049205771523</v>
+      </c>
+      <c r="E91">
+        <v>-0.05118131106768034</v>
+      </c>
+      <c r="F91">
+        <v>-0.003126677232429071</v>
+      </c>
+      <c r="G91">
+        <v>-0.002640996382799792</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1601651260322069</v>
+        <v>0.1801578361871962</v>
       </c>
       <c r="C92">
-        <v>-0.2915008315045136</v>
+        <v>-0.2960525636775138</v>
       </c>
       <c r="D92">
-        <v>0.02699921095599625</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.009679469262972593</v>
+      </c>
+      <c r="E92">
+        <v>-0.07403457689741658</v>
+      </c>
+      <c r="F92">
+        <v>0.03296643732571625</v>
+      </c>
+      <c r="G92">
+        <v>0.04201818769599908</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1877844033697633</v>
+        <v>0.2136086104854043</v>
       </c>
       <c r="C93">
-        <v>-0.3453774230216781</v>
+        <v>-0.3215706788010384</v>
       </c>
       <c r="D93">
-        <v>0.04619197706353776</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01930414573211367</v>
+      </c>
+      <c r="E93">
+        <v>-0.03214915420579773</v>
+      </c>
+      <c r="F93">
+        <v>-0.02210272683033882</v>
+      </c>
+      <c r="G93">
+        <v>0.04701909379316831</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3599606364226584</v>
+        <v>0.3501268087922009</v>
       </c>
       <c r="C94">
-        <v>0.1137702289526936</v>
+        <v>0.1706074946044863</v>
       </c>
       <c r="D94">
-        <v>0.4466292517032007</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4236581847998256</v>
+      </c>
+      <c r="E94">
+        <v>0.09622728884812572</v>
+      </c>
+      <c r="F94">
+        <v>0.08385704184736494</v>
+      </c>
+      <c r="G94">
+        <v>-0.5372113674390996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1129159715853782</v>
+        <v>0.08527712821657446</v>
       </c>
       <c r="C95">
-        <v>0.03652610602123862</v>
+        <v>0.04980565761458627</v>
       </c>
       <c r="D95">
-        <v>-0.2852078412673555</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2189813572582545</v>
+      </c>
+      <c r="E95">
+        <v>0.06608774988799906</v>
+      </c>
+      <c r="F95">
+        <v>0.8996843721158234</v>
+      </c>
+      <c r="G95">
+        <v>-0.07600327432886109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.189642076964197</v>
+        <v>0.1856930255726637</v>
       </c>
       <c r="C98">
-        <v>0.03094510425856229</v>
+        <v>0.04932610029763081</v>
       </c>
       <c r="D98">
-        <v>-0.2207189687289603</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2090314601294431</v>
+      </c>
+      <c r="E98">
+        <v>0.1562134802274738</v>
+      </c>
+      <c r="F98">
+        <v>-0.1079987686425313</v>
+      </c>
+      <c r="G98">
+        <v>0.04378924707671342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01124700029275341</v>
+        <v>0.008407363511106592</v>
       </c>
       <c r="C101">
-        <v>0.02971627098233346</v>
+        <v>0.02669366136517167</v>
       </c>
       <c r="D101">
-        <v>0.006044196207330313</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03456396928069584</v>
+      </c>
+      <c r="E101">
+        <v>-0.08339378009953005</v>
+      </c>
+      <c r="F101">
+        <v>0.005818218554594978</v>
+      </c>
+      <c r="G101">
+        <v>0.0594855561742254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1215194806850684</v>
+        <v>0.1241755633732546</v>
       </c>
       <c r="C102">
-        <v>0.06559026833700492</v>
+        <v>0.09904663957173929</v>
       </c>
       <c r="D102">
-        <v>0.05797090441547086</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06207693579922447</v>
+      </c>
+      <c r="E102">
+        <v>0.002346942850432585</v>
+      </c>
+      <c r="F102">
+        <v>0.02789013402253018</v>
+      </c>
+      <c r="G102">
+        <v>0.03873702434130066</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
